--- a/src/demos/zdemo_excel15#24.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15#24.w3mi.data.xlsx
@@ -398,30 +398,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.0999999999999996E+00" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="9.10" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="0.0000000000000000E+00">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Sheet2!A1"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -440,27 +443,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="0.0000000000000000E+00">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Sheet3!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -479,27 +485,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="0.0000000000000000E+00">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A6" location="Sheet4!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
@@ -510,7 +519,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView tabSelected="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,10 +527,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:4">
       <c r=""/>
     </row>
-    <row r="3" spans="1:4" ht="0.0000000000000000E+00">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -532,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:4">
       <c r="B4" s="2">
         <v>57</v>
       </c>
@@ -543,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="0.0000000000000000E+00">
+    <row r="5" spans="1:4">
       <c r="B5" s="2">
         <v>58</v>
       </c>
@@ -554,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="0.0000000000000000E+00">
+    <row r="6" spans="1:4">
       <c r="B6" s="2">
         <v>59</v>
       </c>
@@ -565,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="0.0000000000000000E+00">
+    <row r="7" spans="1:4">
       <c r="B7" s="2">
         <v>61</v>
       </c>
@@ -576,12 +585,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="0.0000000000000000E+00">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" location="Sheet1!B2"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
 </worksheet>
